--- a/Models and Prediction/appendix/stress model comparison.xlsx
+++ b/Models and Prediction/appendix/stress model comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocha\Documents\Queen's\Year 4\ELEC498\ECG_Li\Models and Prediction\appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC5FE3-CBAF-4C3E-B5F9-AB1D9BDF3A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115F6C5-3697-4E61-B08E-94AE8180106A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3660" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E102148A-B3A4-4790-89BD-77FDAD01A447}"/>
   </bookViews>
@@ -181,10 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -206,6 +204,2092 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6D5E2FE0-CDAC-408A-B51E-1606811EB8A0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3D8E36AE-F206-478B-B1F8-0AB5EBF2B047}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1455A787-B5A6-4EB6-A9BB-ED567A454335}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6743075453677174E-2"/>
+                  <c:y val="-1.1280317852710711E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F97A63FE-CF55-42EC-A84E-DA9D25AEE3D4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9B52A066-B657-4158-896D-8DCA366EA3D0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8250359079446626E-2"/>
+                  <c:y val="3.0051248775152896E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DC84254A-E34A-40FE-B6F9-7F7DA2748893}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8204393505252869E-3"/>
+                  <c:y val="3.3840953558132048E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2F720906-EBC3-4628-BD2F-32A6AF9CB5C5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F4480AB8-00AA-450C-BEF1-BC523B61CC18}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D2D4E8F8-D655-4CEA-B179-FC67BBB29BCA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{80E8AEB5-BA5E-42E8-BEE8-2A4323911E88}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5657433938236227E-2"/>
+                  <c:y val="8.3474352110058866E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AC8DD21B-BDF0-40A3-958F-11AEDC97B98B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0563514804202507E-2"/>
+                  <c:y val="-3.8353080699216315E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3E42B8AE-512C-46E0-85C2-979620FF04E0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9102196752626553E-2"/>
+                  <c:y val="4.5121271410842594E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{39DD178C-73E3-44AC-9F57-97E33A4FE879}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DF1851E4-081E-478F-BD8E-104BC607BA4D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{267626DE-CE4C-4CE2-80CD-FC1333021344}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EFED692E-F5DA-4502-8CE7-08FF9BDFFD0F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50A9D4C9-E1C9-4F4A-A199-20513FCDCC30}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9758DC77-E18C-4954-A6D4-EBA91F1BED79}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1D211A3E-01C1-4F79-9355-5E4E263E6F36}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{44DA0D7F-15F9-4393-A9E9-9071B6485901}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CE5654E4-BAD0-4C71-8055-1ABEC768DF26}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C09E57A-C6C2-499D-8753-1B0F479435B0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{81CAD81E-C8E4-4590-8AAC-B715730AB76C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B7E78684-DB32-4AF3-9E4B-22E25D98F03E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D40E1B20-935F-4B6D-A7ED-E7636D706EE3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-7CAA-4FF5-B9D6-E93BA596B71F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5357.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1075.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>653.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$2:$A$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="25"/>
+                  <c:pt idx="0">
+                    <c:v>NuSVC</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>AdaBoostClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GaussianNB</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LinearDiscriminantAnalysis</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SVC</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>RidgeClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RidgeClassifierCV</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>LinearSVC</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CalibratedClassifierCV</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LogisticRegression</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NearestCentroid</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>BernoulliNB</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>QuadraticDiscriminantAnalysis</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ExtraTreesClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>RandomForestClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>DummyClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>KNeighborsClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>ExtraTreeClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LGBMClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>XGBClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SGDClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>DecisionTreeClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>BaggingClassifier</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Perceptron</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>PassiveAggressiveClassifier</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02A7-462C-82CB-F8107E1A755D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="565437736"/>
+        <c:axId val="565438096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="565437736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time Taken (log[sec])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565438096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="565438096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>F1 Score (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565437736"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FB5FE8-73CB-3EC6-5369-8478F8B87CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,7 +2609,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +2635,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -568,7 +2652,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
@@ -585,24 +2669,24 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>0.66</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>0.53</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>0.66</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -619,7 +2703,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -636,7 +2720,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -653,7 +2737,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
@@ -670,7 +2754,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
@@ -687,7 +2771,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
@@ -704,7 +2788,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -721,7 +2805,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -738,7 +2822,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -755,7 +2839,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
@@ -772,7 +2856,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -789,7 +2873,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
@@ -806,7 +2890,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
@@ -823,7 +2907,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -840,7 +2924,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
@@ -857,7 +2941,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -874,7 +2958,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -891,7 +2975,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22">
@@ -908,7 +2992,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
@@ -925,7 +3009,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
@@ -942,7 +3026,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
@@ -959,7 +3043,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26">
@@ -976,20 +3060,21 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
